--- a/zinfo/WitnessesAndGuarantors.xlsx
+++ b/zinfo/WitnessesAndGuarantors.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="witnesses" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -190,6 +190,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -210,12 +211,14 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,20 +263,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,220 +409,220 @@
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
